--- a/ClassifierScoresTables.xlsx
+++ b/ClassifierScoresTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://byu-my.sharepoint.com/personal/caymanw_byu_edu/Documents/7th Semester/MATH 402/Coding Homeworks/Vol3Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1FF33D3-CF17-42C9-8DE1-92C1CC4EF114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="8_{B1FF33D3-CF17-42C9-8DE1-92C1CC4EF114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{219964C4-99C5-4333-BA4C-0702C601A679}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{9C157ED2-5052-4774-AD32-76A750D22230}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Combined</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Naïve Bayes w/ SMOTE</t>
   </si>
   <si>
-    <t>Naïve Bayes w/ SMOTE (Cross Validation)</t>
-  </si>
-  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -72,10 +69,28 @@
     <t>Scaled Preprocessing</t>
   </si>
   <si>
-    <t>KNN Classifier w/ SMOTE (Cross Validated)</t>
-  </si>
-  <si>
-    <t>KNN Classifier w/o SMOTE (Cross Validated)</t>
+    <t>KNN Classifier w/o SMOTE</t>
+  </si>
+  <si>
+    <t>KNN Classifier w/ SMOTE</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier w/o SMOTE</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier w/ SMOTE</t>
+  </si>
+  <si>
+    <t>F1 Optimized</t>
+  </si>
+  <si>
+    <t>Recall Optimized</t>
+  </si>
+  <si>
+    <t>Logistic Regression w/o SMOTE</t>
+  </si>
+  <si>
+    <t>Logistic Regression w SMOTE</t>
   </si>
 </sst>
 </file>
@@ -127,12 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -141,6 +153,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,323 +472,605 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1FFB5A-2F3F-4430-B706-E35199AD63CB}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.26953125" customWidth="1"/>
+    <col min="21" max="21" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="U1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Z1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AE1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AJ1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.4400000000000002E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="C3">
-        <v>5.5500000000000001E-2</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="D3">
-        <v>0.1444</v>
-      </c>
-      <c r="F3" s="6" t="s">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0.02</v>
+        <v>0.64090000000000003</v>
       </c>
       <c r="H3">
-        <v>0.1084</v>
+        <v>0.26150000000000001</v>
       </c>
       <c r="I3">
-        <v>0.1163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M3">
+        <v>0.1406</v>
+      </c>
+      <c r="N3">
+        <v>0.1045</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="R3">
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="S3">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>4.41E-2</v>
+      </c>
+      <c r="W3">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="X3">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AB3">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="AC3">
+        <v>0.49020000000000002</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AG3">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="AH3">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>4.41E-2</v>
+      </c>
+      <c r="AL3">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>0.61890000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.93540000000000001</v>
+        <v>0.94479999999999997</v>
       </c>
       <c r="C4">
-        <v>0.92879999999999996</v>
+        <v>0.93689999999999996</v>
       </c>
       <c r="D4">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0.94359999999999999</v>
+        <v>0.77129999999999999</v>
       </c>
       <c r="H4">
-        <v>0.91210000000000002</v>
+        <v>0.79459999999999997</v>
       </c>
       <c r="I4">
-        <v>0.91320000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="M4">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="N4">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="R4">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="S4">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="W4">
+        <v>0.9516</v>
+      </c>
+      <c r="X4">
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="AB4">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="AC4">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="AG4">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="AH4">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK4">
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="AL4">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="AM4">
+        <v>0.77180000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>7.4700000000000003E-2</v>
+      <c r="B5" s="6">
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="C5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="F5" s="6" t="s">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>1.37E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.1396</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.1106</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="3">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="W5">
+        <v>7.46E-2</v>
+      </c>
+      <c r="X5" s="6">
+        <v>6.13E-2</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>0.2273</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="AG5">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="H5">
-        <v>0.1046</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0.59519999999999995</v>
-      </c>
-      <c r="C9">
-        <v>0.4047</v>
-      </c>
-      <c r="D9">
-        <v>0.82140000000000002</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0.5141</v>
-      </c>
-      <c r="H9">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="I9">
-        <v>0.25290000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>0.7762</v>
-      </c>
-      <c r="C10">
-        <v>0.81140000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.67969999999999997</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>0.79290000000000005</v>
-      </c>
-      <c r="H10">
-        <v>0.77980000000000005</v>
-      </c>
-      <c r="I10">
-        <v>0.88329999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="AH5" s="3">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.22570000000000001</v>
-      </c>
-      <c r="C11">
-        <v>0.19040000000000001</v>
-      </c>
-      <c r="D11">
-        <v>0.21929999999999999</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>0.2039</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.2092</v>
-      </c>
-      <c r="I11">
-        <v>0.1767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>0.65129999999999999</v>
-      </c>
-      <c r="C15">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="D15">
-        <v>0.83320000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>0.79479999999999995</v>
-      </c>
-      <c r="C16">
-        <v>0.84040000000000004</v>
-      </c>
-      <c r="D16">
-        <v>0.69789999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.2354</v>
-      </c>
-      <c r="C17">
-        <v>0.1875</v>
-      </c>
-      <c r="D17">
-        <v>0.21110000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="AK5" s="6">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0.2452</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>0.2102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F25" s="5"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F31" s="5"/>
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="16">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F8:I8"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
